--- a/src/main/resources/static/ifrs.xlsx
+++ b/src/main/resources/static/ifrs.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jparacha\git\boardofdirectorsServer\src\main\resources\static\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="830" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="5865" tabRatio="830"/>
   </bookViews>
   <sheets>
     <sheet name="Lease" sheetId="1" r:id="rId1"/>
@@ -23,6 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lease!$A$3:$M$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <oleSize ref="A1:G16"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -912,8 +908,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AM100"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7847,7 +7843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A82" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
@@ -12426,8 +12422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:XFD1334"/>
+    <sheetView showGridLines="0" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24089,7 +24085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A69" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -24459,7 +24455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
